--- a/data/codeml/positive_selection/positive_selection_analysis.xlsx
+++ b/data/codeml/positive_selection/positive_selection_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="9060" windowWidth="23320" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="4060" yWindow="4260" windowWidth="23320" windowHeight="12040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Parameter estimates</t>
   </si>
   <si>
-    <t>omega = 0.474</t>
-  </si>
-  <si>
     <t>PSS</t>
   </si>
   <si>
@@ -101,28 +98,31 @@
     <t>M7 vs M8</t>
   </si>
   <si>
-    <t>p0 = 0.549; p1 = 0.451; w0 = 0.055; w1 = 1.000</t>
-  </si>
-  <si>
-    <t>p0 = 0.521; p1 = 0.378; p2 = 0.101; w0 = 0.048; w1 = 1.000; w2 = 3.088</t>
-  </si>
-  <si>
-    <t>22 (11)</t>
-  </si>
-  <si>
-    <t>p0 = 0.494; p1 = 0.382; p2 = 0.124; w0 = 0.033; w1 = 0.759; w2 = 2.577</t>
-  </si>
-  <si>
-    <t>27 (18)</t>
-  </si>
-  <si>
-    <t>p = 0.170; q = 0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p0 = 0.89596; p1 = 0.104; p = 0.179; q = 0.303; w = 2.719</t>
-  </si>
-  <si>
-    <t>26 (16)</t>
+    <t>omega = 0.213</t>
+  </si>
+  <si>
+    <t>p0 = 0.821; p1 = 0.179; w0 = 0.139; w1 = 1.000</t>
+  </si>
+  <si>
+    <t>p0 = 0.821; p1 = 0.067; p2 = 0.112; w0 = 0.139; w1 = 1.000; w2 = 1.000</t>
+  </si>
+  <si>
+    <t>84 (38)</t>
+  </si>
+  <si>
+    <t>p0 = 0.537; p1 = 0.352; p2 = 0.112; w0 = 0.057; w1 = 0.334; w2 = 0.788</t>
+  </si>
+  <si>
+    <t>49 (0)</t>
+  </si>
+  <si>
+    <t>p = 0.619; q = 1.996</t>
+  </si>
+  <si>
+    <t>p0 = 0.99999; p1 = 0.00001; p = 0.619; q = 1.996; w = 44.503</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
   </si>
 </sst>
 </file>
@@ -146,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,9 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +457,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,14 +472,14 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>-10376.280847</v>
+        <v>-11592.219268000001</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1">
         <f>2*(B4-B1)</f>
-        <v>247.58911599999919</v>
+        <v>294.99551200000133</v>
       </c>
       <c r="F1">
         <f>1-_xlfn.CHISQ.DIST(E1,4,1)</f>
@@ -480,64 +488,64 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>-10294.269394999999</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-11484.190084</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <f>2*(B3-B2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v>-2.2000000171829015E-5</v>
+      </c>
+      <c r="F2" t="e">
         <f>1-_xlfn.CHISQ.DIST(E2,2,1)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>-10294.269394999999</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-11484.190095</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <f>2*(B6-B5)</f>
-        <v>3.6736000001837965E-2</v>
-      </c>
-      <c r="F3">
+        <v>-9.3879999985801987E-3</v>
+      </c>
+      <c r="F3" t="e">
         <f>1-_xlfn.CHISQ.DIST(E3,2,1)</f>
-        <v>0.9817996635934213</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>-10252.486289</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-11444.721512</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>-10254.248540000001</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-11446.956241</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>-10254.230172</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-11446.960934999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -551,122 +559,122 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.21304999999999999</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="3">
+        <v>-11592.219268000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.47398400000000002</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-8929.4483710000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="2">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-11444.721512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.62539999999999996</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>-8412.9785179999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="2">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-11484.190084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.48080000000000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-8485.693996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-11484.190095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>-8419.8231699999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="2">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-11446.956241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.42220000000000002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>-8466.2679420000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.6149</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16">
-        <v>-8405.7733489999991</v>
+      <c r="E16" s="3">
+        <v>-11446.960934999999</v>
       </c>
     </row>
   </sheetData>
